--- a/Schematics/BOM.xlsx
+++ b/Schematics/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htcmcb/Documents/GitHub/RTEP_Pedal/Schematics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htcmc\Documents\GitHub\RTEP_Pedal\Schematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E75456F6-61C8-0746-95AF-FD03C85486D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BDB950E8-2E06-4293-80DA-4F07CD49E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{F9DE1B78-B4C6-2B49-AE5E-5B23A0C3A492}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{F9DE1B78-B4C6-2B49-AE5E-5B23A0C3A492}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="175" uniqueCount="118">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="206" uniqueCount="138">
   <si>
     <t>Reference</t>
   </si>
@@ -382,6 +382,66 @@
   </si>
   <si>
     <t>128×32 2.23inch OLED display HAT</t>
+  </si>
+  <si>
+    <t>Order Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>40 pin GPIO header compatible with Rpi</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>3.5mm TRS Connector</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>PiHut</t>
+  </si>
+  <si>
+    <t>WAV-17009</t>
+  </si>
+  <si>
+    <t>128x32 2.23" OLED display HAT</t>
+  </si>
+  <si>
+    <t>40 pin header</t>
+  </si>
+  <si>
+    <t>0805 0 ohm resistor</t>
+  </si>
+  <si>
+    <t>PCM3060 Stereo Audio CODEC</t>
+  </si>
+  <si>
+    <t>SSQ-120-03-F-D-ND</t>
+  </si>
+  <si>
+    <t>CP1-3523N-ND</t>
+  </si>
+  <si>
+    <t>1292-WR08X000PTLCT-ND</t>
+  </si>
+  <si>
+    <t>PEC11R-4015F-S0024-ND</t>
+  </si>
+  <si>
+    <t>24LC256T-I/SNCT-ND</t>
+  </si>
+  <si>
+    <t>296-20974-1-ND</t>
+  </si>
+  <si>
+    <t>296-21668-5-ND</t>
   </si>
 </sst>
 </file>
@@ -389,9 +449,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,6 +593,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -831,7 +899,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -874,13 +942,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -914,6 +985,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1255,21 +1327,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E5FB5-23CD-344C-8AD8-AD12E6A26E14}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F35"/>
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
     <col min="5" max="5" width="43" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,11 +1361,13 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1452,7 +1527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1462,7 +1537,7 @@
       <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E10" t="s">
@@ -1471,9 +1546,9 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1558,7 @@
       <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E11" t="s">
@@ -1492,9 +1567,9 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1514,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1599,7 @@
       <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E13" t="s">
@@ -1533,9 +1608,9 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1555,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1595,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1615,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1635,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1655,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1675,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1695,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1715,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1735,7 +1810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1755,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1765,7 +1840,7 @@
       <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E25" t="s">
@@ -1774,9 +1849,9 @@
       <c r="F25">
         <v>8</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1786,7 +1861,7 @@
       <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E26" t="s">
@@ -1795,9 +1870,9 @@
       <c r="F26">
         <v>8</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1817,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1837,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1857,7 +1932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1867,7 +1942,7 @@
       <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E30" t="s">
@@ -1876,9 +1951,9 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1888,7 +1963,7 @@
       <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E31" t="s">
@@ -1897,9 +1972,9 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1909,7 +1984,7 @@
       <c r="C32" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E32" t="s">
@@ -1918,9 +1993,9 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1940,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -1950,7 +2025,7 @@
       <c r="C34" t="s">
         <v>101</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E34" t="s">
@@ -1959,9 +2034,9 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1971,13 +2046,180 @@
       <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="2">
+      <c r="I35" s="2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="2">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" s="2">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="2">
         <v>17.3</v>
       </c>
     </row>
@@ -1991,6 +2233,18 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{F0C24488-74A1-4AD7-A17C-05B7BDA76964}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{2493D791-CA1A-4A22-AF28-023C2BA1274A}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{6964F3FA-5534-4BC6-8099-58ABD20A6421}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{E37A90AB-BAF2-4728-97B6-5C18A0C147BC}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{2C9D02F5-63C0-47A0-8C50-8F9B72B75564}"/>
+    <hyperlink ref="D30" r:id="rId6" xr:uid="{67E33283-7CA2-4375-A611-BBE2C1BC6A46}"/>
+    <hyperlink ref="D31" r:id="rId7" xr:uid="{1B69CF45-D7F4-416E-BC26-E1E9222B5DCB}"/>
+    <hyperlink ref="D32" r:id="rId8" xr:uid="{56E1383B-4138-4E51-BC1F-5007E1C687AF}"/>
+    <hyperlink ref="D34" r:id="rId9" xr:uid="{2967130D-29C8-476C-B09D-50C6E899DD73}"/>
+    <hyperlink ref="D35" r:id="rId10" xr:uid="{47596DFC-BC36-4EA6-954F-DF8F94098C77}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
